--- a/database/emotions.xlsx
+++ b/database/emotions.xlsx
@@ -214,8 +214,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -225,12 +229,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -243,141 +247,141 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="0" width="8.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
     </row>

--- a/database/emotions.xlsx
+++ b/database/emotions.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="example" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$H$21</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,10 +34,16 @@
     <t xml:space="preserve">emoji</t>
   </si>
   <si>
-    <t xml:space="preserve">trigger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">physical</t>
+    <t xml:space="preserve">definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">physiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action</t>
   </si>
   <si>
     <t xml:space="preserve">note</t>
@@ -58,13 +67,18 @@
 Việc chú ý đến cảm giác về mặt thể chất tại những vùng này và cho phép nguồn năng lượng được lan tỏa sẽ giúp chúng ta bộc lộ nỗi buồn sau mất mát và đồng cảm với nỗi đau của người khác.</t>
   </si>
   <si>
-    <t xml:space="preserve">vui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">happy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:D</t>
+    <t xml:space="preserve">- Đuôi mí mắt trên cụp xuống
+- Ánh mắt kém tập trung,
+- Mép miệng kéo nhẹ xuống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Thể hiện sự đồng cảm, an ủi và quan tâm của bạn dành cho họ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chán nản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bore</t>
   </si>
   <si>
     <t xml:space="preserve">giận dữ</t>
@@ -83,25 +97,23 @@
 Nếu bạn thấy lưng, cổ và xương hàm xuất hiện những cảm giác như căng cứng, đau nhức và nặng nề, bạn đang cảm thấy tức giận trong lòng.</t>
   </si>
   <si>
-    <t xml:space="preserve">sợ hãi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sợ hãi là phản ứng trước mối nguy hại, chẳng hạn như thú dữ, độ cao hoặc súng. Đây là cảm giác giúp chúng ta tránh xa các mối nguy hại này tại thời điểm đó và không đến gần chúng trong tương lai.
-Mặc dù sợ hãi là phản ứng cảm xúc đã tiến hóa, nhưng những điều khiến chúng ta sợ hãi lại được tích lũy thông qua trải nghiệm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sợ hãi thường được cảm nhận từ thân trên. Tuy nhiên, đối với chứng sợ độ cao, cảm giác sợ hãi thường xuất hiện ở chân.
-Khi cảm thấy sợ hãi, tim của bạn sẽ đập nhanh hơn và bạn bắt đầu thở gấp, lòng bàn tay của bạn sẽ toát mồ hôi và có cảm giác nóng vì một phần của hệ thần kinh đang hoạt động mạnh. Đây là phản ứng có tên chống trả hay bỏ chạy.</t>
+    <t xml:space="preserve">Biểu hiện của cảm xúc giận dữ đó chính là lông mày hạ xuống và kéo lại gần nhau, trừng mắt, môi mím lại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông thường, cảm xúc giận dữ thường xuất hiện nhanh chóng và tan biến đi ngay sau đó. Đây cũng là loại cảm xúc không được ưu tiên trong mỗi người và trước một vấn đề nào đó, thay vì giận dữ thì bạn cần biết cách kiềm chế và bình tĩnh hơn. </t>
   </si>
   <si>
     <t xml:space="preserve">hạnh phúc</t>
   </si>
   <si>
+    <t xml:space="preserve">happy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hạnh phúc là phản ứng trước những điều thường có liên quan đến việc tồn tại, phát triển, và di truyền cho thế hệ sau.
-Một số điều khiến chúng ta hạnh phúc bao gồm tình dục, có con, đạt được thành công với mục tiêu có giá trị, được người khác khen thưởng và được chào đón.</t>
+Một số điều khiến chúng ta hạnh phúc bao gồm tình dục, có con, đạt được thành công với mục tiêu có giá trị, được người khác khen thưởng và được chào đón.
+Biểu hiện của khuôn mặt như nụ cười.
+Ngôn ngữ cơ thể như là tư thế thoải mái.
+Giọng nói dịu dàng, vui vẻ.</t>
   </si>
   <si>
     <t xml:space="preserve">Hạnh phúc có thể là cảm giác ấm áp lan tỏa trên toàn cơ thể hoặc có thể bao gồm sự mãn nguyện, an toàn, hoặc sống một cuộc sống yên vui.</t>
@@ -110,21 +122,40 @@
     <t xml:space="preserve">Mặc dù hạnh phúc có lẽ là một trong những cảm xúc dễ nhận biết hoặc được biết đến nhiều nhất, nhưng đây cũng là một trong số các cảm xúc khó định nghĩa nhất.</t>
   </si>
   <si>
-    <t xml:space="preserve">bất ngờ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngạc nhiên là phản ứng xuất hiện trước một điều gì đó bất ngờ nhưng không phải là mối nguy hại.
-Đây là cảm xúc khá thú vị vì sự trung tính khi so sánh với các loại cảm xúc khác vốn có xu hướng thiên về tích cực hoặc tiêu cực.
-Sự ngạc nhiên có tác dụng chuyển hướng sự chú ý đến những điều mới lạ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cảm giác ngạc nhiên được cảm nhận chủ yếu tại phần đầu và ngực. Đó là phản ứng trước yếu tố nằm ngoài mong đợi và khiến bạn hơi choáng.</t>
+    <t xml:space="preserve">hoài niệm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nostalgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoài niệm là một cảm xúc, đôi khi là một tình trạng bệnh lý liên quan đến sự khao khát những gì thuộc về quá khứ và thường là lý tưởng hóa những điều đó.
+Nostalgia là sự luyến tiếc quá khứ, lòng nhớ quê hương, nỗi nhớ nhà khi không còn ở đó nữa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do we feel nostalgia?
+https://www.youtube.com/watch?v=WiTgn5QH_HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khinh bỉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scornful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nó thể hiện sự khinh thường, chê bai người khác một cách tiêu cực</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biểu hiện rõ nhất ở người đang có cảm xúc khinh bỉ đó chính là môi mím và một bên mép nhếch lên.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việc duy trì cảm xúc này trong thời gian dài có thể gây nên những hậu quả tội tề, đặc biệt là trong những mối quan hệ cần sự tôn trọng.
+Vì vậy, bạn cần đẩy lùi và loại bỏ loại cảm xúc này trong chính con người mình. </t>
   </si>
   <si>
     <t xml:space="preserve">kinh tởm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disgust</t>
   </si>
   <si>
     <t xml:space="preserve">Kinh tởm là phản ứng đối với tác nhân đem đến sự ghê tởm, thường khiến chúng ta khó chịu về mặt thể chất.
@@ -136,10 +167,136 @@
 Bạn sẽ cảm thấy khó chịu trong người hoặc buồn nôn và bạn chỉ muốn bịt mũi rồi di chuyển ra xa tác nhân đem đến sự ghê tởm.</t>
   </si>
   <si>
+    <t xml:space="preserve">lãnh đạm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thờ ơ hay lãnh đạm là sự thiếu cảm giác, cảm xúc, sự quan tâm hoặc mối quan tâm về điều gì đó. Sự thờ ơ là một trạng thái không quan tâm, hoặc kìm nén các cảm xúc như lo âu, phấn khích, động lực hoặc đam mê. Một cá nhân lãnh đạm có sự thiếu quan tâm hoặc quan tâm đến đời sống tình cảm, xã hội, tinh thần, triết học hoặc thể chất và thế giới xung quanh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo âu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anxiety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mỹ cảm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aesthetic appreciation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sự cảm thấy cái đẹp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://spiderum.com/bai-dang/Shibui-My-cam-tinh-te-cua-nguoi-Nhat-6m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngạc nhiên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngạc nhiên là phản ứng xuất hiện trước một điều gì đó bất ngờ hoặc đột ngột, nhưng không phải là mối nguy hại.
+Đây là cảm xúc khá thú vị vì sự trung tính khi so sánh với các loại cảm xúc khác vốn có xu hướng thiên về tích cực hoặc tiêu cực.
+Sự ngạc nhiên có tác dụng chuyển hướng sự chú ý đến những điều mới lạ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cảm giác ngạc nhiên được cảm nhận chủ yếu tại phần đầu và ngực. Đó là phản ứng trước yếu tố nằm ngoài mong đợi và khiến bạn hơi choáng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biểu hiện rõ nhất khi ngạc nhiên đó là lông mày nâng lên, mắt mở to và miệng há ra.
+Cách phân biệt giữa ngạc nhiên và sợ hãi đó chính là lông mày, khi ngạc nhiên lông mày sẽ cong lên còn sợ hãi thì lông mày sẽ nằm ngang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để giải tỏa cảm xúc này thì bạn hãy cố gắng lấy lại bình tĩnh và giải quyết vấn đề. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nghi ngờ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doubt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngưỡng mộ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sợ hãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sợ hãi là phản ứng trước mối nguy hại, chẳng hạn như thú dữ, độ cao hoặc súng. Đây là cảm giác giúp chúng ta tránh xa các mối nguy hại này tại thời điểm đó và không đến gần chúng trong tương lai.
+Mặc dù sợ hãi là phản ứng cảm xúc đã tiến hóa, nhưng những điều khiến chúng ta sợ hãi lại được tích lũy thông qua trải nghiệm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sợ hãi thường được cảm nhận từ thân trên. Tuy nhiên, đối với chứng sợ độ cao, cảm giác sợ hãi thường xuất hiện ở chân.
+Khi cảm thấy sợ hãi, tim của bạn sẽ đập nhanh hơn và bạn bắt đầu thở gấp, lòng bàn tay của bạn sẽ toát mồ hôi và có cảm giác nóng vì một phần của hệ thần kinh đang hoạt động mạnh. Đây là phản ứng có tên chống trả hay bỏ chạy.
+Biểu cảm khuôn mặt như mở to mắt và thu cằm lại.
+Cố gắng che giấu hoặc chối bỏ những mối đe dọa.
+Những phản ứng sinh lý như thở gấp và tim đập mạnh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thất vọng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disappointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thỏa mãn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contenment</t>
+  </si>
+  <si>
     <t xml:space="preserve">tin tưởng</t>
   </si>
   <si>
     <t xml:space="preserve">trust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tin tưởng là một trạng thái chắc chắn rằng một giả thuyết hoặc dự đoán là chính xác hoặc một hành động được lựa chọn là tốt nhất hoặc hiệu quả nhất.
+Có sự tự tin là có niềm tin vào chính mình.
+Sự kiêu ngạo hay ngạo mạn là sự tự tin không có căn cứ  - tin vào điều gì đó hoặc ai đó có khả năng trong khi họ không có điều đó.
+Quá tự tin hoặc tự phụ là niềm tin quá mức vào một ai đó (hoặc một cái gì đó) thành công, mà không có bất kỳ liên quan đến thất bại.
+Sự tự tin có thể là một lời tiên tri tự hoàn thành vì những người không có nó có thể thất bại hoặc không cố gắng vì họ thiếu nó và những người có nó có thể thành công vì họ có nó hơn là vì khả năng bẩm sinh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tò mò</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curiosity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tội lỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vui vẻ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đây là cảm xúc mang tính tích cực mà bất cứ ai cũng nuôi dưỡng trong con người mình.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nở nụ cười với nếp nhăn ở khóe mắt, gò má được nâng cao lên, có sự thay đổi vùng cơ mắt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cũng có một số người thường che dấu sự buồn bã của mình bằng một nụ cười để thể hiện rằng mình đang vui vẻ, nhưng nếu tinh ý chắc chắn bạn sẽ nhận ra. </t>
   </si>
 </sst>
 </file>
@@ -149,7 +306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -170,6 +327,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,7 +378,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,19 +388,39 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -244,148 +428,322 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="8.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="66.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="38.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="13" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H21"/>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" display="Why do we feel nostalgia?&#10;https://www.youtube.com/watch?v=WiTgn5QH_HU"/>
+    <hyperlink ref="H11" r:id="rId2" display="http://spiderum.com/bai-dang/Shibui-My-cam-tinh-te-cua-nguoi-Nhat-6m7"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -393,5 +751,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/database/emotions.xlsx
+++ b/database/emotions.xlsx
@@ -11,7 +11,7 @@
     <sheet name="example" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$H$21</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -167,6 +167,12 @@
 Bạn sẽ cảm thấy khó chịu trong người hoặc buồn nôn và bạn chỉ muốn bịt mũi rồi di chuyển ra xa tác nhân đem đến sự ghê tởm.</t>
   </si>
   <si>
+    <t xml:space="preserve">Khi một ai đó có biểu hiện nhăn mũi, môi trên nâng lên thì chắc chắn họ đang thể hiện cảm xúc ghê tởm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mức độ ghê tởm trong mỗi người sẽ có sự khác nhau, không phải ai cũng giống ai. Nhiều nghiên cứu lại chỉ ra rằng, việc ghê tởm một điều gì đó chứng tỏ bạn đang có vấn đề về sức khỏe. Tuy nhiên, cảm xúc này cũng nên hạn chế sử dụng, bởi nó gây cảm giác mất vệ sinh cho những người xung quanh. </t>
+  </si>
+  <si>
     <t xml:space="preserve">lãnh đạm</t>
   </si>
   <si>
@@ -239,9 +245,16 @@
   <si>
     <t xml:space="preserve">Sợ hãi thường được cảm nhận từ thân trên. Tuy nhiên, đối với chứng sợ độ cao, cảm giác sợ hãi thường xuất hiện ở chân.
 Khi cảm thấy sợ hãi, tim của bạn sẽ đập nhanh hơn và bạn bắt đầu thở gấp, lòng bàn tay của bạn sẽ toát mồ hôi và có cảm giác nóng vì một phần của hệ thần kinh đang hoạt động mạnh. Đây là phản ứng có tên chống trả hay bỏ chạy.
-Biểu cảm khuôn mặt như mở to mắt và thu cằm lại.
-Cố gắng che giấu hoặc chối bỏ những mối đe dọa.
 Những phản ứng sinh lý như thở gấp và tim đập mạnh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biểu cảm khuôn mặt như mở to mắt và thu cằm lại.
+Lông mày nhướn lên và kéo lại gần nhau, mí mắt trên kéo lên, mí mắt dưới căng, miệng hơi kéo sang hai bên.
+Cố gắng che giấu hoặc chối bỏ những mối đe dọa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi xuất hiện cảm giác này, cách giải quyết chung của nhiều người là bỏ chạy nhưng điều này càng khiến cho sự sợ hãi trong bạn tăng lên.
+Cách tốt nhất vẫn là lấy lại bình tĩnh để giải quyết vấn đề. </t>
   </si>
   <si>
     <t xml:space="preserve">thất vọng</t>
@@ -297,6 +310,15 @@
   </si>
   <si>
     <t xml:space="preserve">Cũng có một số người thường che dấu sự buồn bã của mình bằng một nụ cười để thể hiện rằng mình đang vui vẻ, nhưng nếu tinh ý chắc chắn bạn sẽ nhận ra. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;3</t>
   </si>
 </sst>
 </file>
@@ -306,7 +328,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -335,6 +357,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -378,7 +405,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,6 +434,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -428,10 +459,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -440,8 +471,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="66.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="56.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="40.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="38.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="8.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="13" style="1" width="11.52"/>
@@ -557,7 +588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -587,159 +618,179 @@
       <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G8" s="3"/>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H21"/>
+  <autoFilter ref="A1:H22"/>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" display="Why do we feel nostalgia?&#10;https://www.youtube.com/watch?v=WiTgn5QH_HU"/>
     <hyperlink ref="H11" r:id="rId2" display="http://spiderum.com/bai-dang/Shibui-My-cam-tinh-te-cua-nguoi-Nhat-6m7"/>

--- a/database/emotions.xlsx
+++ b/database/emotions.xlsx
@@ -461,8 +461,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/database/emotions.xlsx
+++ b/database/emotions.xlsx
@@ -11,7 +11,8 @@
     <sheet name="example" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$H$22</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$H$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -68,17 +69,44 @@
   </si>
   <si>
     <t xml:space="preserve">- Đuôi mí mắt trên cụp xuống
-- Ánh mắt kém tập trung,
+- Ánh mắt kém tập trung
 - Mép miệng kéo nhẹ xuống</t>
   </si>
   <si>
     <t xml:space="preserve">- Thể hiện sự đồng cảm, an ủi và quan tâm của bạn dành cho họ</t>
   </si>
   <si>
+    <t xml:space="preserve">cảm tình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cảnh giác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vigilance</t>
+  </si>
+  <si>
     <t xml:space="preserve">chán nản</t>
   </si>
   <si>
     <t xml:space="preserve">bore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chấp nhận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acceptance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chấp nhận là sự đồng ý của một người với thực tế của một tình huống, nhận ra một quá trình hoặc điều kiện (thường là một tình huống tiêu cực hoặc không thoải mái) mà không cố gắng thay đổi nó hoặc phản đối nó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mong đợi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anticipation</t>
   </si>
   <si>
     <t xml:space="preserve">giận dữ</t>
@@ -98,6 +126,11 @@
   </si>
   <si>
     <t xml:space="preserve">Biểu hiện của cảm xúc giận dữ đó chính là lông mày hạ xuống và kéo lại gần nhau, trừng mắt, môi mím lại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Thở sâu
+- Đi dạo
+- Suy nghĩ theo chiều hướng khác. Thay vì nghĩ “Cô ấy khi nào cũng cáu kỉnh”, hãy nghĩ “Hẳn là cô đấy đã có một ngày thật tồi tệ”</t>
   </si>
   <si>
     <t xml:space="preserve">Thông thường, cảm xúc giận dữ thường xuất hiện nhanh chóng và tan biến đi ngay sau đó. Đây cũng là loại cảm xúc không được ưu tiên trong mỗi người và trước một vấn đề nào đó, thay vì giận dữ thì bạn cần biết cách kiềm chế và bình tĩnh hơn. </t>
@@ -221,6 +254,15 @@
     <t xml:space="preserve">Để giải tỏa cảm xúc này thì bạn hãy cố gắng lấy lại bình tĩnh và giải quyết vấn đề. </t>
   </si>
   <si>
+    <t xml:space="preserve">ngất ngây</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecstasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có cảm giác như say, như mê đi vì được thoả mãn quá đầy đủ về tình cảm</t>
+  </si>
+  <si>
     <t xml:space="preserve">nghi ngờ</t>
   </si>
   <si>
@@ -231,6 +273,12 @@
   </si>
   <si>
     <t xml:space="preserve">admiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thích thú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interest</t>
   </si>
   <si>
     <t xml:space="preserve">sợ hãi</t>
@@ -261,6 +309,13 @@
   </si>
   <si>
     <t xml:space="preserve">disappointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thất vọng hay sự thất vọng, nỗi thất vọng, vỡ mộng là thuật ngữ mô tả cảm giác không hài lòng rằng sau sự thất bại, đổ bể của những kỳ vọng hoặc hy vọng được biểu lộ ra bên ngoài bởi nổi buồn, nỗi sầu hoặc giấu kín trong nội tâm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thất vọng có điểm tương tự như hối tiếc, tuy nhiên nó khác ở chỗ một người cảm giác hối tiếc tập trung chủ yếu vào sự lựa chọn cá nhân đóng góp vào một kết quả không được như ý muốn và cảm giác tiếc nuối, trong khi một người cảm thấy thất vọng tập trung vào các kết quả của chính mình hoặc một cá nhân, tập thể khác.
+Sự thất vọng là một nguồn gốc của căng thẳng tâm lý và chán chường, thất vọng là một trong hai cảm xúc chính tham gia vào việc ra quyết định.</t>
   </si>
   <si>
     <t xml:space="preserve">thỏa mãn</t>
@@ -319,6 +374,94 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">êm đềm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serenity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bực</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annoyance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thịnh nộ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghê tởm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loathing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tâm trạng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pensiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tâm trạng tồi tệ không chỉ hủy hoại một vài ngày của bạn, chúng còn có khả năng hủy hoại cuộc sống của bạn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Nghĩ về những kỉ niệm đẹp hoặc người mà bạn biết ơn
+- Làm việc tốt hàng ngày
+- Nghe nhạc với nội dung lạc quan
+- Nhận thức được cảm giác tồi tệ là không của riêng ai
+- Tâm sự với mọi người
+- Thay đổi thói quen sống lành mạnh
+- Thời gian ngủ hợp lý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đau khổ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đau buồn là phản ứng với sự mất mát, đặc biệt là sự mất mát của một ai đó hoặc một cái gì đó đã chết, mà một sự ràng buộc hoặc tình cảm đã được hình thành.
+Sự đau buồn liên quan đến cái chết là quen thuộc với hầu hết mọi người, nhưng các cá nhân đau buồn liên quan đến nhiều mất mát trong suốt cuộc đời của họ, chẳng hạn như thất nghiệp, sức khỏe kém hoặc kết thúc một mối quan hệ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lơ là</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh ngạc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amazement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e ngại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apprehension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh hãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lạc quan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nóng giận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggressiveness</t>
   </si>
 </sst>
 </file>
@@ -435,7 +578,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -459,10 +602,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -472,9 +615,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="56.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="40.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="38.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="51.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="38.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="40.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="8.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="13" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
@@ -536,264 +680,431 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="H11" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="H15" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="16" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="1" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H22"/>
+  <autoFilter ref="A1:H28"/>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" display="Why do we feel nostalgia?&#10;https://www.youtube.com/watch?v=WiTgn5QH_HU"/>
-    <hyperlink ref="H11" r:id="rId2" display="http://spiderum.com/bai-dang/Shibui-My-cam-tinh-te-cua-nguoi-Nhat-6m7"/>
+    <hyperlink ref="H10" r:id="rId1" display="Why do we feel nostalgia?&#10;https://www.youtube.com/watch?v=WiTgn5QH_HU"/>
+    <hyperlink ref="H15" r:id="rId2" display="http://spiderum.com/bai-dang/Shibui-My-cam-tinh-te-cua-nguoi-Nhat-6m7"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/database/emotions.xlsx
+++ b/database/emotions.xlsx
@@ -11,7 +11,7 @@
     <sheet name="example" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$H$28</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$H$27</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">sợ hãi</t>
   </si>
   <si>
-    <t xml:space="preserve">scare</t>
+    <t xml:space="preserve">fear</t>
   </si>
   <si>
     <t xml:space="preserve">Sợ hãi là phản ứng trước mối nguy hại, chẳng hạn như thú dữ, độ cao hoặc súng. Đây là cảm giác giúp chúng ta tránh xa các mối nguy hại này tại thời điểm đó và không đến gần chúng trong tương lai.
@@ -343,10 +343,8 @@
     <t xml:space="preserve">curiosity</t>
   </si>
   <si>
-    <t xml:space="preserve">tội lỗi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sin</t>
+    <t xml:space="preserve">Tò mò là một phẩm chất liên quan đến việc tư duy thu thập như thăm dò, điều tra và học tập, một cách rõ ràng bằng cách quan sát ở người và động vật khác.
+Sự tò mò gắn liền với tất cả các khía cạnh của sự phát triển của con người, trong đó xuất phát quá trình học hỏi và khao khát có dduowwjc kiến thức và kỹ năng</t>
   </si>
   <si>
     <t xml:space="preserve">vui vẻ</t>
@@ -462,6 +460,60 @@
   </si>
   <si>
     <t xml:space="preserve">aggressiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khinh thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi vọng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tội lỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guilt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vui sướng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phục tùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chịu nghe theo, tin theo, làm theo, tuân theo, không làm trái lại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đa cảm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sentimentality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dễ cảm xúc, dễ rung động</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phiền muộn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xấu hổ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shame</t>
   </si>
 </sst>
 </file>
@@ -602,10 +654,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -948,160 +1000,225 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="3" t="s">
         <v>119</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H28"/>
+  <autoFilter ref="A1:H27"/>
   <hyperlinks>
     <hyperlink ref="H10" r:id="rId1" display="Why do we feel nostalgia?&#10;https://www.youtube.com/watch?v=WiTgn5QH_HU"/>
     <hyperlink ref="H15" r:id="rId2" display="http://spiderum.com/bai-dang/Shibui-My-cam-tinh-te-cua-nguoi-Nhat-6m7"/>
